--- a/medicine/Hématologie/Syndrome_plaquettaire_du_Québec/Syndrome_plaquettaire_du_Québec.xlsx
+++ b/medicine/Hématologie/Syndrome_plaquettaire_du_Québec/Syndrome_plaquettaire_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_plaquettaire_du_Qu%C3%A9bec</t>
+          <t>Syndrome_plaquettaire_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome plaquettaire du Québec est une maladie héréditaire de la coagulation sanguine, décrite pour la première fois dans une famille du Québec et se manifestant par des hémorragies.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_plaquettaire_du_Qu%C3%A9bec</t>
+          <t>Syndrome_plaquettaire_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie est de transmission autosomique dominante. Elle est due à la présence, dans les plaquettes sanguines d'un activateur du plasminogène de type urokinase[1]. cela entraîne une accélération de la fibrinolyse en cas d'activation plaquettaire. Elle est due à une mutation du gène PLAU[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie est de transmission autosomique dominante. Elle est due à la présence, dans les plaquettes sanguines d'un activateur du plasminogène de type urokinase. cela entraîne une accélération de la fibrinolyse en cas d'activation plaquettaire. Elle est due à une mutation du gène PLAU.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_plaquettaire_du_Qu%C3%A9bec</t>
+          <t>Syndrome_plaquettaire_du_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les saignements se produisent spécifiquement de manière retardée secondairement à une plaie, chirurgicale ou non[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les saignements se produisent spécifiquement de manière retardée secondairement à une plaie, chirurgicale ou non.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_plaquettaire_du_Qu%C3%A9bec</t>
+          <t>Syndrome_plaquettaire_du_Québec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les patients répondent bien à un traitement antifibrinolytique.
 </t>
